--- a/src/version_py/schedule.xlsx
+++ b/src/version_py/schedule.xlsx
@@ -1,13 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="empty" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3S 3sport" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2A 2ek fry" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3A 3ra fry" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4A 4ra log" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5A 5ek log" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1B 1gas log" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2B 2gas" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3B 3gas" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="4B 4gas fry" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5B 5gas fry" sheetId="10" state="visible" r:id="rId10"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2C 2hot" sheetId="11" state="visible" r:id="rId11"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3C 3hot" sheetId="12" state="visible" r:id="rId12"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2L 2log" sheetId="13" state="visible" r:id="rId13"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3L 3log" sheetId="14" state="visible" r:id="rId14"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="1d 1wz" sheetId="15" state="visible" r:id="rId15"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2d 2wz" sheetId="16" state="visible" r:id="rId16"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3d 3wz" sheetId="17" state="visible" r:id="rId17"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3e 3wz" sheetId="18" state="visible" r:id="rId18"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="3CŚ" sheetId="19" state="visible" r:id="rId19"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="5ZI" sheetId="20" state="visible" r:id="rId20"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,13 +36,16 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
@@ -34,7 +56,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="2">
     <border>
       <left/>
       <right/>
@@ -42,12 +64,21 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -413,7 +444,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A4"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -422,23 +453,7807 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" t="n">
-        <v>1</v>
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>2</v>
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>w.f MP st1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ang.r KY 207</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>matematyka BJ 110</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>historia PA 7</t>
+        </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>3</v>
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>w.f MP st1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ang.r KY 207</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>4</v>
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>w.f MP st1</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pod.prz KZ 7</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>chemia MK 11</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>wło PK 208</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>z.z.w MP 1</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>matematyka BJ 2</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>matematyka BJ 110</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>wło PK 207</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>z.r.wło PK 207</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>zaj.sport MP st1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>historia PA 112</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>infor-1/2 MŚ 109</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>infor-2/2 MŚ 109</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>z.r.wło PK 207</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02
+pr.k.p.fry-fry PL 101</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>us.w.gas-gas AJ _07
+pr.p.est-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02
+pr.k.p.fry-fry PL 101</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02
+pr.k.p.fry-fry PL 101</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>niem-gas SZ 102
+pr.p.est-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02
+pr.k.p.fry-fry PL 101</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>z.z.w SZ 112</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ang-gas JT 115
+niem-fry SZ 102</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ang-gas JT 115
+o.m.z-fry SI 208</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>matem.r KM 2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ob.kon-gas PT 203
+ang-fry JT 115</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pod.żyw-gas MW 1
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>w.f-gas RT s2
+o.m.z-fry SI 207</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>us.w.gas-gas AJ _07
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pod.żyw-gas MW 1
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>w.f-gas RT s2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pod.żyw-gas MW 1
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ob.kon-gas PT _02</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>niem-gas SZ 112
+ang-fry JT 115</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pod.żyw-gas MW 1
+niem-fry SZ 102</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>w.o.s PA 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>ang-gas-gas JT 115
+w.f-fry RB s1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02
+ang-fry-fry JT 202</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ang-gas-gas JT 115
+w.f-fry RB s1</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas PT _02
+ang-fry-fry JT 202</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>mark.hot PT 203</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ang-hot JT 115
+wło-hot ZM 202</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ang-hot JT 115
+wło-hot ZM 202</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-hot LU _02
+pr.ob.inf-hot KF 101</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>infor-hot MŚ 109
+ang-hot-hot PJ 102</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>wło-hot ZM 202
+ang-hot JT 115</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>wło-hot ZM 202
+ang-hot JT 115</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-hot LU _02
+pr.ob.inf-hot KF 101</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>matematyka PE 110</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pr.hot-hot PT 203
+ang-hot-hot PJ 102</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>o.p.hot PT 203</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>o.m.z KF 110</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>pr.ob.inf-hot KF 101
+pr.ob.kon-hot LU _02</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 7</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>dz.w.rec-hot PT 203
+infor-hot MŚ 109</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>matem.r PE 2</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>pr.ob.inf-hot KF 101
+pr.ob.kon-hot LU _02</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ang-hot-hot PJ 102
+pr.hot-hot PT 203</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>chemia MK 11</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>h.i.t JG 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>z.z.w PT 203</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ang-hot-hot PJ 102
+dz.w.rec-hot PT 203</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>w.f RB s1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>religia SM 115</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>k.p.s SI 203</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>w.f RB s1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>ob.kon LU 1</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>matematyka PE 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>w.f RB s1</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-hot MO _02</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-hot MO _02</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>ang-hot KY 207</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ang-hot KY 207</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-hot MO _02
+dz.w.rec-hot PT 203</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>dz.w.rec-hot PT 203
+pr.ob.kon-hot MO _02</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ang-hot KY 207</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>z.z.w MO 1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ob.kon MO 2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>infor-hot DS 109
+pr.hot-hot PT 203</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>historia PA 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pod.prz BW 208</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pr.ob.inf-hot DS 109
+pr.hot-hot PT 203</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>wło PK 208</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>o.p.hot PT 203</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pr.hot-hot PT 203
+pr.ob.inf-hot DS 109</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>w.f RB s1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>w.f RB s1</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pr.hot-hot PT 203
+infor-hot DS 109</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>mark.hot PT 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>w.f RB s1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>matem.r KM 2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>wło PK 207</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>h.i.t PA 112</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>chemia MK 112</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pod.log SI 208</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>przech.zap-log BJ 209
+p.i.w.zap-log AJ _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>matematyka BJ 7</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>b.h.p PA 103</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>matem.r BJ 110</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>przech.zap-log BJ 209
+p.i.w.zap-log AJ _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pod.log SI 203</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>wło ZM 207</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>h.i.t JG 103</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>w.f MP s1</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>wło ZM 207</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>w.f MP s1</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>w.f MP s1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>matematyka BJ 110</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 7</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>p.i.w.zap-log AJ _07
+infor-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>p.i.w.zap-log AJ _07
+zab.maj-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>chemia MK 103</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ang KY 207</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>zab.maj-log MŚ 109
+p.i.w.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>p.i.w.zap-log AJ _07
+przech.zap-log BJ 209</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>p.i.w.zap-log AJ _07
+zab.maj-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>religia SM 115</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>zab.maj-log MŚ 109
+p.i.w.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>infor-log MŚ 109
+przech.zap-log BJ 209</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>zab.maj-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>z.z.w KR 103</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pod.log SI 208</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>zab.maj-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>infor-log MŚ 109
+wło-log PK 202</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>w.f-log JB s1
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>ang-log PS 210
+wło-log PK 208</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>przech.zap-log AJ _07
+ang-log-log PS 210</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pod.prz BW 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>wło-log PK 202
+infor-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>p.i.w.zap-log AJ _07
+o.k.i.k-log SI 209</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>wło-log PK 208
+p.i.w.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>przech.zap-log AJ _07
+ang-log-log PS 210</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>matematyka PE 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>w.f-log JB s1
+przech.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>p.i.w.zap-log AJ _07
+o.k.i.k-log SI 209</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>o.k.i.k-log SI 209
+p.i.w.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ang-log-log PS 210
+przech.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>w.f-log JB s1
+przech.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>o.k.i.k-log SI 209
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>ang-log-log PS 210
+przech.zap-log AJ _07</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>historia PA 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>przech.zap-log AJ _07
+w.f-log MG s2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>chemia MK 7</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>matematyka PE 2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>przech.zap-log AJ _07
+w.f-log MG s2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>matematyka PE 2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>pl.p.trans BJ 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>matem.r PE 110</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ang-log PS 210
+w.f-log MG s2</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pl.p.trans BJ 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>z.z.w PE 110</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>h.i.t PA 103</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>w.f-j1 KZ s2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>infor-j2 MŚ 109</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>w.f-j1 KZ s2
+ang-j2 PJ 102</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>matematyka AD 7</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>infor-j1 MŚ 109
+w.f-j2 RT s2</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>ang-j1 PJ 210
+w.f-j2 RT s2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 7</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>ang-j1 PJ 116
+w.f-j2 RT s2</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>geografia PT 203</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>jęz.polski SZ 112</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>w.f-j1 KZ s2
+ang-j2 PJ 116</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 7</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>matematyka AD 7</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>z.z.w PI 2</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>e.d.b JG 110</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jęz.polski SZ 112</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>jęz.polski-pol SZ 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>z.z.w ST 201</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>matematyka-mat AD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jęz.polski-pol SZ 112</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>w.f-j1 RB s1
+ang-j2 PJ 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ang-j1 PJ _02
+w.f-j2 RT s2</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>matematyka-mat AD 7</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>ang-j1 PJ 102
+w.f-j2 RT s2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>geografia PT 203</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>w.f-j2 RT s2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>w.f-j1 RB s1
+ang-j2 PJ 102</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>w.f-j1 RB s1</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>w.f-j1 JB s2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>w.f-j1 JB s2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>matematyka AD 7</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>w.f-j1 JB s1
+ang-j2 JT 115</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>geografia PT 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>ang-j1 JT 115
+w.f-j2 JB s3</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>religia SM 115</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>w.f-j2 JB s1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>z.z.w JB 208</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>w.f-j2 JB s1</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>religia SM 115</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>w.f-j1 KZ s2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>w.f-j1 KZ s2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>z.z.w JT 115</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>matematyka AD 7</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>w.f-j1 KZ s3
+ang-j2 JT 210</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>w.f-j2 RT s2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>geografia PT 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>w.f-j2 RT s2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>ang-j1 JT 210
+w.f-j2 RT s1</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>ko.sp.CŚ RT 6</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>ko.sp.CŚ RT 6</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dok.zd.gos-ek BW 209
+pr.fry.men-fry JG _08</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pr.t.biu-ek KF 101
+w.f-fry KZ s2</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>geografia-ek KR 103
+w.f-fry KZ s2</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>f.p.gos-ek BW 209
+pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ang-ek KY 207
+wło-fry ZM 202</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dok.zd.gos-ek BW 209
+pr.fry.men-fry JG _08</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pr.t.biu-ek KF 101
+w.f-fry KZ s2</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>b.i.z BW 201</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>f.p.gos-ek BW 209
+pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>wło-ek ZM 202
+higiena-fry MA 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>dok.zd.gos-ek BW 209
+pr.est-fry PL _08</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pr.t.biu-ek KF 101
+biologia-fry ST 201</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>wło-ek ZM 202
+ang-fry KY 207</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>geogr.r-ek KR 103
+pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>mark-ek AJ 109
+ang-fry KY 207</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>b.h.p-ek PA 102
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>b.i.z BW 110</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ang-ek KY 207
+wło-fry ZM 202</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>stat-ek KF 110
+pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>historia JG 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>infor-ek MŚ 109
+pod.fry-fry MA 102</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>h.i.t JG 110</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>stat-ek KF 101
+infor-fry MŚ 109</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>biologia-ek ST 201
+pod.fry-fry MA 102</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>z.z.w GM 11</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pra.d.g-ek PA 103
+t.fry-fry MA 102</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>matem.r KM 2</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>historia JG 111</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>w.f-ek RB s1
+t.fry-fry MA 102</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>w.f-ek RB s1
+pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>chemia MK 112</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>w.f-ek RB s1
+pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>biol.r-fry ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>geografia-fry KR 103</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pr.fry.men-fry JG _08</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15:50-16:35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pr.fry.dam-fry MA _08</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pr.fry.men-fry JG _08</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>ko.sp.5ZI RT 6</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ko.sp.5ZI RT 6</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>ang KY 6</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 6</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>matematyka PE 6</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>matematyka PE 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 6</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>matematyka PE 6</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 6</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>matematyka PE 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>geografia KR 6</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ang KY 6</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 6</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>ang KY 6</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>matematyka PE 6</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>geografia KR 6</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>geografia KR 6</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>matematyka KJ 1</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>matem.r KJ 110</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>matematyka KJ 110</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>w.f JB s1</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>w.f JB s1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>matematyka KJ 110</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>chemia MK 11</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>geogr.r-fry KR 103
+pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>wło PK 208</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>w.f JB s1</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>rach.fin-ra BW 11
+geografia-fry KR 103</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>historia PA 112</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ang-ra-ra PJ 202
+t.fry-fry MA 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+t.fry-fry MA 102</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>wło PK 208</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+pr.fry-fry PL _08
+pr.kosm-fry MA _09</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+biol.r-fry ST 201</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pod.prz KF 110</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+pr.est-fry PL _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+pr.fry-fry PL _08
+pr.kosm-fry MA _09</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+t.fry-fry MA 102</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ang PS 208</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ang PS 208</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>geografia-ra KR 103
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pod.stat-ra KF 101
+pr.kosm-fry MA _09
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>infor-ra DS 109
+biologia-fry ST 201</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>h.i.t PA 111</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+pr.kosm-fry MA _09
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>biologia-ra ST 201
+infor-fry DS 109</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>z.z.w KF 110</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>rach.fin-ra BW 209</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>chemia MK 11</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>z.z.w BW 110</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>ang-ra PS 210
+o.k.i.k-log SI 209</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>matem.r KM 2</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pr.rach-ra BW 209
+niem-log SZ 102</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>ang-ra PS 210
+or.proc.tr-log BJ _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+dok.r.pr.tr-log BJ 101</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+w.f-log JB s1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pr.rach-ra BW 209
+ang-log-log PJ _02</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>niem-ra SZ 112
+or.proc.tr-log BJ _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+dok.r.pr.tr-log BJ 101</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>w.f-ra MG s2
+or.proc.tr-log BJ 209</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>ang-ra-ra PJ 115
+w.f-log JB s1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pr.rach-ra BW 209
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>w.f-ra MG s2
+ang-log-log PJ 102</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ra BW 209
+dok.r.pr.tr-log BJ 101</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>w.f-ra MG s2
+or.proc.tr-log BJ 209</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>matem.r KM 2</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>ang-ra-ra PJ _02
+w.f-log JB s2</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>w.o.s PA 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>historia PA 103</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+o.k.i.k-log SI 109</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pl.p.trans-log BJ 209</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ra KF 101
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>pl.p.trans-log BJ 209</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>ang-ra PS 210</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>dok.r.pr.tr-log SI _07</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>matematyka PE 1</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pr.stat-ek KF 101
+w.f-log MP s1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>matematyka PE 2</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>matematyka PE 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>dok.r.pr.tr-log SI _07</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>niem-ek SZ 112
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>pr.stat-ek KF 101
+w.f-log MP s1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>matematyka PE 2</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>w.o.s PA 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>w.f-ek MG s2
+ang-log-log PS 210</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ek BW 209
+niem-log SZ 102</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>w.f-ek MG s2
+dok.r.pr.tr-log SI _07</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ek BW 209
+ang-log-log PS 210</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>historia PA 103</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>ang-ek PS 210
+dok.r.pr.tr-log SI _07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>matem.r PE 111</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>geogr.r KR 103</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ek KF 101
+or.proc.tr-log SI _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>niem-ek SZ 112
+ang-log PS 210</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ang-ek-ek PS 210
+niem-log SZ 112</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ek KF 101
+or.proc.tr-log SI 209</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ek KF 101
+or.proc.tr-log SI _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ek BW 209
+pl.p.trans-log BJ 101</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>z.z.w PA 112</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ek KF 101
+or.proc.tr-log SI 209</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ek KF 101
+or.proc.tr-log SI _07</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pro.gos.fin-ek BW 209
+pl.p.trans-log BJ 101</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pr.s.k-pła-ek KF 101
+or.proc.tr-log SI 209</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>ang-ek PS 210</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>ang-ek-ek PS 210</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G9"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>plastyka UL 110</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>z.z.w MG 111</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>k.p.s-gas SI 208
+b.h.p-log PA 102</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>matem.r PE 110</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>matematyka PE 1</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pod.gas-gas MW 1
+k.p.s-log SI 208</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>historia JG 103</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pod.gas-gas MW 1
+infor-log MŚ 109</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pod.gas-gas MW 1
+w.f-log MG s2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>historia JG 110</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>o.m.z-gas SI 207
+niem-log SZ 112</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>chemia MK 7</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>infor-gas MŚ 109
+o.p.mag-log AJ _07</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>w.f-gas MG s2
+pod.log-log SI 202</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+o.m.z-log SI 202</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>wło-gas PK 202
+ang-log JT 115</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>b.h.p-gas PA 112
+o.p.mag-log AJ _07</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+pod.log-log SI 202</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>wło-gas PK 202
+ang-log JT 210</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+k.p.s-log SI 208</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>ang-gas JT 115
+pod.log-log SI 202</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pr.wyp.tech-gas SS 1</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+o.p.mag-log AJ _07</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>matematyka PE 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+w.f-log MG s2</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>e.d.b JG 110</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>w.f-gas MG s2</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+o.p.mag-log AJ _07</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>ang-gas JT 210
+niem-log SZ 112</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+w.f-log MG s2</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>w.f-gas MG s2</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>religia SM 115</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>w.f-j1 MP s1</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>ang-j1 PS 210
+wło-j2 PK 208</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>w.f-j1 MP s1</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>wło-j1 PK 208
+ang-j2 PS 210</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+infor-j2 MŚ 109</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>infor-j1 MŚ 109
+pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 2</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>geografia PT 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+w.f-j2 MG s2</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>ang-j1 PS 210
+pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pod.gas MW 1</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>matem.r KM 2</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pod.gas MW 1</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>pod.gas MW 1</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>w.f-j1 MP s3
+wło-j2 PK 202</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>ob.kon PT 203</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>chemia MK 7</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>h.i.t JG 110</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>matematyka KM 110</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>wło-j1 PK 202
+ang-j2 PS 210</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>historia SZ 112</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>k.p.s SI 208</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>z.z.w PS 208</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>b.i.z KZ 1</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+w.f-j2 MG s2</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15:50-16:35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>religia SM 116</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+w.f-j2 MG s2</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16:40-17:25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:30-18:15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>pr.ob.inf-j1 MŚ 109
+pr.gas-gas SS _01</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>pr.ob.inf-j1 MŚ 109
+pr.gas-gas SS _01</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas IJ _02</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>h.i.t PA 112</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+wło-j2 PK 202</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>w.f-j1 MG s3
+pr.gas-gas SS _01</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>wło-j1 PK 202
+infor-j2 MŚ 109</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas IJ _02</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>pod.żyw MW 1</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+pr.ob.inf-j2 MŚ 101</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>w.f-j1 MG s3
+pr.gas-gas SS _01</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>geografia PT 203</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>us.w.gas AJ 1</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>matematyka KM 2</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>w.f-j1 MG s1
+pr.ob.inf-j2 MŚ 101</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>infor-j1 MŚ 109
+ang-j2 JT 116</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>chemia MK 7</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>historia PA 112</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>wło-j1 PK 202
+ang-j2 JT 210</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ang-j1 JT 115
+wło-j2 PK 202</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>ob.kon IJ 1</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pod.gas SS 1</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>ang-j1 JT 210
+w.f-j2 RB s1</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>jęz.polski GM 11</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>z.z.w SS 1</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas IJ _02
+w.f-j2 RB s1</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>matem.r KM 110</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>pod.prz BW 203</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+pr.ob.kon-gas IJ _02</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas IJ _02
+w.f-j2 RB s1</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15:50-16:35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01
+pr.ob.kon-gas IJ _02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16:40-17:25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>17:30-18:15</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>pr.gas-gas SS _01</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Nr</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Godz</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Poniedziałek</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>Wtorek</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>Środa</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>Czwartek</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>Piątek</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="inlineStr">
+        <is>
+          <t>1</t>
+        </is>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>8:00- 8:45</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>niem-gas SZ 112
+ang-fry KY 207</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>pr.ob.inf-gas MŚ 109
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>pod.żyw-gas MW 1</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>geografia KR 103</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>w.f-fry RB s1</t>
+        </is>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="inlineStr">
+        <is>
+          <t>2</t>
+        </is>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>8:50- 9:35</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>us.w.gas-gas AJ 1
+niem-fry SZ 112</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>ang-gas KY 207
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>pod.gas-gas MW 1</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>historia PA 203</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>w.f-fry RB s1</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>9:40-10:25</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>biologia ST 201</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>ang-gas KY 207
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>w.f-gas JB s1
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>ang-gas-gas PJ _02
+pr.k.p.fry-fry PL 101</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>w.f-gas JB s2
+pr.p.est-fry PL _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>10:40-11:25</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>matematyka PE 110</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>us.w.gas-gas AJ 1
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>ob.kon-gas IJ _02
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>chemia MK 11</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>w.f-gas JB s2
+p.i.d.fry-fry PL _08</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
+          <t>5</t>
+        </is>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>11:30-12:15</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>matematyka PE 110</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01
+pr.ob.kon-gas IJ _02
+ang-fry KY 207</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas IJ _02
+pr.gas-gas LU _01
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>w.o.s PA 103</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>12:20-13:05</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ang-gas KY 207
+w.f-fry RB s1</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01
+pr.ob.kon-gas IJ _02
+ang-fry KY 207</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>pr.ob.kon-gas IJ _02
+pr.gas-gas LU _01
+pr.fry-fry PL _08</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>fizyka AD 7</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>13:10-13:55</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>jęz.polski IB 111</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01
+ang-fry-fry PJ 102</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01
+k.p.s-fry SI 207</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>matem.r PE 2</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>matematyka PE 2</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>14:10-14:55</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>z.z.w LU 1</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01
+pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>pr.gas-gas LU _01
+t.fry-fry JG 7</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>matem.r PE 2</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="inlineStr">
+        <is>
+          <t>9</t>
+        </is>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>15:00-15:45</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>t.fry-fry JG 7</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>biol.r ST 201</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>religia DD 116</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>15:50-16:35</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>16:40-17:25</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>pr.fry-M-fry JG _08</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> </t>
+        </is>
       </c>
     </row>
   </sheetData>
